--- a/config_10.13/permission_server_config.xlsx
+++ b/config_10.13/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4205" uniqueCount="1788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8333" uniqueCount="1789">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -6840,10 +6840,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>vivo</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>share_condition</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6853,10 +6849,6 @@
   </si>
   <si>
     <t>market_channel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>是VIVO渠道的用户</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -8203,6 +8195,18 @@
   </si>
   <si>
     <t>不是冲金鸡渠道</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cps</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是CPS用户</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10136,7 +10140,7 @@
         <v>133</v>
       </c>
       <c r="B70" s="53" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -10154,7 +10158,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -10172,7 +10176,7 @@
         <v>135</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -10190,7 +10194,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -10208,7 +10212,7 @@
         <v>137</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="C74" s="57"/>
       <c r="D74" s="9"/>
@@ -10220,7 +10224,7 @@
         <v>138</v>
       </c>
       <c r="B75" s="53" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="C75" s="57"/>
       <c r="D75" s="9"/>
@@ -10233,7 +10237,7 @@
         <v>139</v>
       </c>
       <c r="B76" s="53" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="C76" s="57"/>
       <c r="D76" s="9"/>
@@ -10246,7 +10250,7 @@
         <v>140</v>
       </c>
       <c r="B77" s="53" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="C77" s="57">
         <v>22</v>
@@ -10261,7 +10265,7 @@
         <v>141</v>
       </c>
       <c r="B78" s="53" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="C78" s="9">
         <v>23</v>
@@ -10276,7 +10280,7 @@
         <v>142</v>
       </c>
       <c r="B79" s="53" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="C79" s="9">
         <v>24</v>
@@ -10291,7 +10295,7 @@
         <v>143</v>
       </c>
       <c r="B80" s="53" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="C80" s="9">
         <v>25</v>
@@ -10306,7 +10310,7 @@
         <v>144</v>
       </c>
       <c r="B81" s="53" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="C81" s="9">
         <v>26</v>
@@ -10321,7 +10325,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -10893,7 +10897,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="53" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B142" s="53" t="s">
         <v>249</v>
@@ -11014,10 +11018,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="61" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C154" s="14">
         <v>267</v>
@@ -11025,10 +11029,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="61" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="C155" s="14">
         <v>268</v>
@@ -11036,10 +11040,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="61" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="C156" s="14">
         <v>269</v>
@@ -11047,10 +11051,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="61" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="C157" s="14">
         <v>270</v>
@@ -11058,10 +11062,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="61" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="C158" s="14">
         <v>271</v>
@@ -11069,10 +11073,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="61" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="C159" s="14">
         <v>272</v>
@@ -11080,10 +11084,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="61" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="C160" s="14">
         <v>273</v>
@@ -11091,10 +11095,10 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="61" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C161" s="14">
         <v>274</v>
@@ -11102,10 +11106,10 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="61" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="C162" s="14">
         <v>275</v>
@@ -11113,10 +11117,10 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="61" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="C163" s="14">
         <v>276</v>
@@ -11124,10 +11128,10 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="61" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C164" s="14">
         <v>277</v>
@@ -11135,10 +11139,10 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="61" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="C165" s="14">
         <v>278</v>
@@ -11146,10 +11150,10 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="61" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C166" s="14">
         <v>279</v>
@@ -11480,7 +11484,7 @@
     </row>
     <row r="200" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="60" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="B200" s="60" t="s">
         <v>328</v>
@@ -11510,7 +11514,7 @@
     </row>
     <row r="202" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="34" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B202" s="34" t="s">
         <v>333</v>
@@ -12982,10 +12986,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="27" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="B369" s="27" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="C369" s="3">
         <v>256</v>
@@ -12993,10 +12997,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="C370" s="3">
         <v>257</v>
@@ -13004,10 +13008,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="27" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B372" s="27" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="C372" s="3">
         <v>258</v>
@@ -13015,10 +13019,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="C374" s="3">
         <v>266</v>
@@ -13026,10 +13030,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="27" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B376" s="27" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="C376" s="3">
         <v>287</v>
@@ -13037,10 +13041,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="27" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="B378" s="27" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="C378" s="3">
         <v>292</v>
@@ -13048,10 +13052,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="27" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B380" s="27" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="C380" s="3">
         <v>319</v>
@@ -13059,10 +13063,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="B382" s="27" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="C382" s="3">
         <v>326</v>
@@ -13070,10 +13074,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="27" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B384" s="27" t="s">
         <v>1784</v>
-      </c>
-      <c r="B384" s="27" t="s">
-        <v>1786</v>
       </c>
       <c r="C384" s="3">
         <v>327</v>
@@ -13274,7 +13278,7 @@
         <v>1053</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="N4" s="34" t="s">
         <v>1185</v>
@@ -21193,7 +21197,7 @@
         <v>1</v>
       </c>
       <c r="C237" s="79" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="D237" s="79" t="s">
         <v>1210</v>
@@ -22083,10 +22087,10 @@
         <v>1</v>
       </c>
       <c r="C264" s="30" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D264" s="53" t="s">
         <v>1526</v>
-      </c>
-      <c r="D264" s="53" t="s">
-        <v>1528</v>
       </c>
       <c r="G264" s="26">
         <v>250</v>
@@ -22104,7 +22108,7 @@
         <v>1597707000</v>
       </c>
       <c r="L264" s="26" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -22115,10 +22119,10 @@
         <v>1</v>
       </c>
       <c r="C265" s="26" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D265" s="53" t="s">
         <v>1527</v>
-      </c>
-      <c r="D265" s="53" t="s">
-        <v>1529</v>
       </c>
       <c r="G265" s="26">
         <v>251</v>
@@ -22136,7 +22140,7 @@
         <v>1597707000</v>
       </c>
       <c r="L265" s="26" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -22147,10 +22151,10 @@
         <v>1</v>
       </c>
       <c r="C266" s="30" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D266" s="26" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="G266" s="26">
         <v>252</v>
@@ -22168,7 +22172,7 @@
         <v>1597680000</v>
       </c>
       <c r="L266" s="26" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -22179,10 +22183,10 @@
         <v>1</v>
       </c>
       <c r="C267" s="30" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="D267" s="30" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="G267" s="26">
         <v>253</v>
@@ -22200,7 +22204,7 @@
         <v>1597707000</v>
       </c>
       <c r="L267" s="26" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -22211,10 +22215,10 @@
         <v>1</v>
       </c>
       <c r="C268" s="30" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="D268" s="30" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="G268" s="26">
         <v>254</v>
@@ -22232,7 +22236,7 @@
         <v>1597707000</v>
       </c>
       <c r="L268" s="26" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -22243,10 +22247,10 @@
         <v>1</v>
       </c>
       <c r="C269" s="30" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="D269" s="30" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="G269" s="26">
         <v>255</v>
@@ -22264,7 +22268,7 @@
         <v>1597707000</v>
       </c>
       <c r="L269" s="26" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="270" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22275,10 +22279,10 @@
         <v>1</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D270" s="16" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E270" s="17"/>
       <c r="F270" s="17"/>
@@ -22292,13 +22296,13 @@
         <v>1</v>
       </c>
       <c r="J270" s="16" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="K270" s="17">
         <v>1598311800</v>
       </c>
       <c r="L270" s="16" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="271" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22309,10 +22313,10 @@
         <v>1</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="D271" s="16" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="E271" s="17"/>
       <c r="F271" s="17"/>
@@ -22326,13 +22330,13 @@
         <v>1</v>
       </c>
       <c r="J271" s="16" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="K271" s="17">
         <v>1598311800</v>
       </c>
       <c r="L271" s="16" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="272" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22343,10 +22347,10 @@
         <v>1</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D272" s="16" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="E272" s="17"/>
       <c r="F272" s="17"/>
@@ -22366,7 +22370,7 @@
         <v>1598311800</v>
       </c>
       <c r="L272" s="16" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="273" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22377,10 +22381,10 @@
         <v>1</v>
       </c>
       <c r="C273" s="17" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="E273" s="17"/>
       <c r="F273" s="17"/>
@@ -22400,7 +22404,7 @@
         <v>1598311800</v>
       </c>
       <c r="L273" s="16" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="274" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22411,10 +22415,10 @@
         <v>1</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="D274" s="16" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="E274" s="17"/>
       <c r="F274" s="17"/>
@@ -22434,7 +22438,7 @@
         <v>1598311800</v>
       </c>
       <c r="L274" s="16" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="275" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22445,10 +22449,10 @@
         <v>1</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="D275" s="16" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="E275" s="17"/>
       <c r="F275" s="17"/>
@@ -22468,7 +22472,7 @@
         <v>1598284800</v>
       </c>
       <c r="L275" s="16" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="276" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22479,10 +22483,10 @@
         <v>1</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="D276" s="16" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="E276" s="17"/>
       <c r="F276" s="17"/>
@@ -22502,7 +22506,7 @@
         <v>1598284800</v>
       </c>
       <c r="L276" s="16" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="277" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22513,10 +22517,10 @@
         <v>1</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D277" s="16" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="E277" s="17"/>
       <c r="F277" s="17"/>
@@ -22530,13 +22534,13 @@
         <v>1</v>
       </c>
       <c r="J277" s="16" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="K277" s="17">
         <v>1598916600</v>
       </c>
       <c r="L277" s="16" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="278" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22547,10 +22551,10 @@
         <v>1</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D278" s="16" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="E278" s="17"/>
       <c r="F278" s="17"/>
@@ -22570,7 +22574,7 @@
         <v>1598889600</v>
       </c>
       <c r="L278" s="16" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="279" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
@@ -22581,10 +22585,10 @@
         <v>0</v>
       </c>
       <c r="C279" s="96" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="D279" s="96" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="E279" s="95"/>
       <c r="F279" s="95"/>
@@ -22615,10 +22619,10 @@
         <v>0</v>
       </c>
       <c r="C280" s="96" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="D280" s="96" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="E280" s="95"/>
       <c r="F280" s="95"/>
@@ -22649,10 +22653,10 @@
         <v>0</v>
       </c>
       <c r="C281" s="96" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D281" s="96" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="E281" s="95"/>
       <c r="F281" s="95"/>
@@ -22683,10 +22687,10 @@
         <v>0</v>
       </c>
       <c r="C282" s="96" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="D282" s="96" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="E282" s="95"/>
       <c r="F282" s="95"/>
@@ -22717,10 +22721,10 @@
         <v>0</v>
       </c>
       <c r="C283" s="96" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="D283" s="96" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="E283" s="95"/>
       <c r="F283" s="95"/>
@@ -22751,10 +22755,10 @@
         <v>1</v>
       </c>
       <c r="C284" s="17" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="E284" s="17"/>
       <c r="F284" s="17"/>
@@ -22768,13 +22772,13 @@
         <v>1</v>
       </c>
       <c r="J284" s="16" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="K284" s="17">
         <v>1599521400</v>
       </c>
       <c r="L284" s="17" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="285" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22785,10 +22789,10 @@
         <v>1</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="D285" s="16" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="E285" s="17"/>
       <c r="F285" s="17"/>
@@ -22808,7 +22812,7 @@
         <v>1599494400</v>
       </c>
       <c r="L285" s="17" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="286" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22819,10 +22823,10 @@
         <v>1</v>
       </c>
       <c r="C286" s="17" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="E286" s="17"/>
       <c r="F286" s="17"/>
@@ -22842,7 +22846,7 @@
         <v>1599523200</v>
       </c>
       <c r="L286" s="17" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="287" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22853,10 +22857,10 @@
         <v>1</v>
       </c>
       <c r="C287" s="17" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="E287" s="17"/>
       <c r="F287" s="17"/>
@@ -22876,7 +22880,7 @@
         <v>1599523200</v>
       </c>
       <c r="L287" s="17" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="288" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22887,10 +22891,10 @@
         <v>1</v>
       </c>
       <c r="C288" s="16" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D288" s="16" t="s">
         <v>1665</v>
-      </c>
-      <c r="D288" s="16" t="s">
-        <v>1667</v>
       </c>
       <c r="E288" s="17"/>
       <c r="F288" s="17"/>
@@ -22910,7 +22914,7 @@
         <v>1599494400</v>
       </c>
       <c r="L288" s="17" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="289" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -22921,10 +22925,10 @@
         <v>1</v>
       </c>
       <c r="C289" s="78" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="D289" s="78" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="E289" s="78"/>
       <c r="F289" s="78"/>
@@ -22938,13 +22942,13 @@
         <v>1</v>
       </c>
       <c r="J289" s="78" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="K289" s="78">
         <v>1600128000</v>
       </c>
       <c r="L289" s="78" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -22955,10 +22959,10 @@
         <v>1</v>
       </c>
       <c r="C290" s="78" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="D290" s="78" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="E290" s="78"/>
       <c r="F290" s="78"/>
@@ -22972,13 +22976,13 @@
         <v>1</v>
       </c>
       <c r="J290" s="78" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="K290" s="78">
         <v>1600128000</v>
       </c>
       <c r="L290" s="78" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -22989,10 +22993,10 @@
         <v>1</v>
       </c>
       <c r="C291" s="79" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="D291" s="78" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="E291" s="78"/>
       <c r="F291" s="78"/>
@@ -23006,13 +23010,13 @@
         <v>1</v>
       </c>
       <c r="J291" s="78" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="K291" s="78">
         <v>1600128000</v>
       </c>
       <c r="L291" s="78" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -23023,10 +23027,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="79" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="D292" s="79" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -23040,13 +23044,13 @@
         <v>1</v>
       </c>
       <c r="J292" s="78" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="K292" s="78">
         <v>1600099200</v>
       </c>
       <c r="L292" s="78" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -23057,10 +23061,10 @@
         <v>1</v>
       </c>
       <c r="C293" s="30" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="G293" s="17">
         <v>298</v>
@@ -23089,10 +23093,10 @@
         <v>1</v>
       </c>
       <c r="C294" s="30" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="D294" s="16" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="G294" s="17">
         <v>299</v>
@@ -23121,10 +23125,10 @@
         <v>1</v>
       </c>
       <c r="C295" s="30" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="D295" s="16" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="G295" s="17">
         <v>300</v>
@@ -23153,10 +23157,10 @@
         <v>1</v>
       </c>
       <c r="C296" s="30" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="D296" s="16" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="G296" s="17">
         <v>301</v>
@@ -23185,10 +23189,10 @@
         <v>1</v>
       </c>
       <c r="C297" s="30" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D297" s="16" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="G297" s="17">
         <v>302</v>
@@ -23217,10 +23221,10 @@
         <v>1</v>
       </c>
       <c r="C298" s="30" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="G298" s="17">
         <v>303</v>
@@ -23249,10 +23253,10 @@
         <v>1</v>
       </c>
       <c r="C299" s="30" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="D299" s="16" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="G299" s="17">
         <v>304</v>
@@ -23281,10 +23285,10 @@
         <v>1</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="D300" s="16" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="G300" s="17">
         <v>305</v>
@@ -23313,10 +23317,10 @@
         <v>1</v>
       </c>
       <c r="C301" s="30" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="G301" s="17">
         <v>306</v>
@@ -23345,10 +23349,10 @@
         <v>1</v>
       </c>
       <c r="C302" s="26" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="G302" s="17">
         <v>307</v>
@@ -23377,10 +23381,10 @@
         <v>1</v>
       </c>
       <c r="C303" s="30" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D303" s="16" t="s">
         <v>1709</v>
-      </c>
-      <c r="D303" s="16" t="s">
-        <v>1711</v>
       </c>
       <c r="G303" s="17">
         <v>308</v>
@@ -23409,10 +23413,10 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D304" s="30" t="s">
         <v>1710</v>
-      </c>
-      <c r="D304" s="30" t="s">
-        <v>1712</v>
       </c>
       <c r="G304" s="26">
         <v>309</v>
@@ -23441,10 +23445,10 @@
         <v>1</v>
       </c>
       <c r="C305" s="30" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="D305" s="30" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="G305" s="26">
         <v>310</v>
@@ -23473,10 +23477,10 @@
         <v>1</v>
       </c>
       <c r="C306" s="30" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D306" s="16" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="G306" s="26">
         <v>311</v>
@@ -23505,10 +23509,10 @@
         <v>1</v>
       </c>
       <c r="C307" s="30" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D307" s="16" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="G307" s="26">
         <v>312</v>
@@ -23537,10 +23541,10 @@
         <v>1</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="D308" s="16" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="G308" s="26">
         <v>313</v>
@@ -23569,10 +23573,10 @@
         <v>1</v>
       </c>
       <c r="C309" s="30" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="D309" s="16" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="G309" s="26">
         <v>314</v>
@@ -23601,10 +23605,10 @@
         <v>1</v>
       </c>
       <c r="C310" s="30" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="D310" s="30" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="G310" s="26">
         <v>315</v>
@@ -23633,10 +23637,10 @@
         <v>1</v>
       </c>
       <c r="C311" s="30" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="D311" s="30" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="G311" s="26">
         <v>316</v>
@@ -23665,10 +23669,10 @@
         <v>1</v>
       </c>
       <c r="C312" s="30" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="D312" s="30" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="G312" s="26">
         <v>317</v>
@@ -23697,10 +23701,10 @@
         <v>1</v>
       </c>
       <c r="C313" s="30" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="D313" s="30" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="G313" s="26">
         <v>318</v>
@@ -23729,10 +23733,10 @@
         <v>1</v>
       </c>
       <c r="C314" s="30" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="D314" s="30" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="G314" s="26">
         <v>319</v>
@@ -23761,10 +23765,10 @@
         <v>1</v>
       </c>
       <c r="C315" s="30" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="D315" s="30" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="G315" s="26">
         <v>320</v>
@@ -23793,10 +23797,10 @@
         <v>1</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="D316" s="16" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="E316" s="17"/>
       <c r="F316" s="17"/>
@@ -23816,7 +23820,7 @@
         <v>1600731000</v>
       </c>
       <c r="L316" s="16" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -23827,10 +23831,10 @@
         <v>1</v>
       </c>
       <c r="C317" s="30" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D317" s="30" t="s">
         <v>1761</v>
-      </c>
-      <c r="D317" s="30" t="s">
-        <v>1763</v>
       </c>
       <c r="G317" s="26">
         <v>322</v>
@@ -23848,7 +23852,7 @@
         <v>1601335800</v>
       </c>
       <c r="L317" s="30" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -23859,10 +23863,10 @@
         <v>1</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="D318" s="30" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="G318" s="26">
         <v>323</v>
@@ -23880,7 +23884,7 @@
         <v>1601335800</v>
       </c>
       <c r="L318" s="30" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -23891,10 +23895,10 @@
         <v>1</v>
       </c>
       <c r="C319" s="26" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="D319" s="26" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="G319" s="26">
         <v>323</v>
@@ -23912,7 +23916,7 @@
         <v>1601335800</v>
       </c>
       <c r="L319" s="30" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
@@ -23923,10 +23927,10 @@
         <v>1</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="D320" s="16" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="G320" s="26">
         <v>324</v>
@@ -23955,10 +23959,10 @@
         <v>1</v>
       </c>
       <c r="C321" s="30" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="D321" s="26" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="G321" s="26">
         <v>325</v>
@@ -23976,7 +23980,7 @@
         <v>1601335800</v>
       </c>
       <c r="L321" s="30" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
   </sheetData>
@@ -23993,10 +23997,10 @@
   <dimension ref="A1:I816"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C711" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C627" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A728" sqref="A728:A816"/>
+      <selection pane="bottomRight" activeCell="G647" sqref="G647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24511,7 +24515,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="D21" s="8">
         <v>1583769600</v>
@@ -24580,7 +24584,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>1056</v>
@@ -25362,7 +25366,7 @@
         <v>40</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>1061</v>
@@ -25707,7 +25711,7 @@
         <v>48</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>1054</v>
@@ -26055,7 +26059,7 @@
         <v>869</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="E88" s="8">
         <v>2</v>
@@ -26147,7 +26151,7 @@
         <v>869</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="E92" s="8">
         <v>2</v>
@@ -28125,7 +28129,7 @@
         <v>1049</v>
       </c>
       <c r="D178" s="94" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E178" s="14">
         <v>2</v>
@@ -28134,7 +28138,7 @@
         <v>4</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28516,7 +28520,7 @@
         <v>1049</v>
       </c>
       <c r="D195" s="94" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E195" s="14">
         <v>2</v>
@@ -28525,7 +28529,7 @@
         <v>4</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="196" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28536,7 +28540,7 @@
         <v>80</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="D196" s="10" t="s">
         <v>934</v>
@@ -36716,7 +36720,7 @@
         <v>200</v>
       </c>
       <c r="C551" s="19" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D551" s="19" t="s">
         <v>1074</v>
@@ -37755,7 +37759,7 @@
         <v>1172</v>
       </c>
       <c r="D596" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E596" s="8">
         <v>5</v>
@@ -37764,7 +37768,7 @@
         <v>1</v>
       </c>
       <c r="G596" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.2">
@@ -37801,7 +37805,7 @@
         <v>1172</v>
       </c>
       <c r="D598" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E598" s="8">
         <v>5</v>
@@ -37810,7 +37814,7 @@
         <v>2</v>
       </c>
       <c r="G598" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="599" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -37824,7 +37828,7 @@
         <v>1172</v>
       </c>
       <c r="D599" s="15" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E599" s="14">
         <v>2</v>
@@ -37833,7 +37837,7 @@
         <v>3</v>
       </c>
       <c r="G599" s="15" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="600" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -37870,7 +37874,7 @@
         <v>1172</v>
       </c>
       <c r="D601" s="15" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E601" s="14">
         <v>5</v>
@@ -37879,7 +37883,7 @@
         <v>1</v>
       </c>
       <c r="G601" s="15" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="602" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -37916,7 +37920,7 @@
         <v>1172</v>
       </c>
       <c r="D603" s="15" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E603" s="14">
         <v>5</v>
@@ -37925,7 +37929,7 @@
         <v>2</v>
       </c>
       <c r="G603" s="15" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="604" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -37939,7 +37943,7 @@
         <v>1172</v>
       </c>
       <c r="D604" s="15" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E604" s="14">
         <v>2</v>
@@ -37948,7 +37952,7 @@
         <v>3</v>
       </c>
       <c r="G604" s="15" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.2">
@@ -37985,7 +37989,7 @@
         <v>1172</v>
       </c>
       <c r="D606" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E606" s="8">
         <v>5</v>
@@ -37994,7 +37998,7 @@
         <v>1</v>
       </c>
       <c r="G606" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.2">
@@ -38031,7 +38035,7 @@
         <v>1172</v>
       </c>
       <c r="D608" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E608" s="8">
         <v>5</v>
@@ -38040,7 +38044,7 @@
         <v>2</v>
       </c>
       <c r="G608" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="609" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -38054,7 +38058,7 @@
         <v>1172</v>
       </c>
       <c r="D609" s="15" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E609" s="14">
         <v>2</v>
@@ -38063,7 +38067,7 @@
         <v>3</v>
       </c>
       <c r="G609" s="15" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.2">
@@ -38100,7 +38104,7 @@
         <v>1172</v>
       </c>
       <c r="D611" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E611" s="8">
         <v>5</v>
@@ -38109,7 +38113,7 @@
         <v>1</v>
       </c>
       <c r="G611" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.2">
@@ -38146,7 +38150,7 @@
         <v>1172</v>
       </c>
       <c r="D613" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E613" s="8">
         <v>5</v>
@@ -38155,7 +38159,7 @@
         <v>2</v>
       </c>
       <c r="G613" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="614" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -38169,7 +38173,7 @@
         <v>1172</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E614" s="14">
         <v>2</v>
@@ -38178,7 +38182,7 @@
         <v>3</v>
       </c>
       <c r="G614" s="15" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.2">
@@ -38215,7 +38219,7 @@
         <v>1172</v>
       </c>
       <c r="D616" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E616" s="8">
         <v>5</v>
@@ -38224,7 +38228,7 @@
         <v>1</v>
       </c>
       <c r="G616" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.2">
@@ -38261,7 +38265,7 @@
         <v>1172</v>
       </c>
       <c r="D618" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E618" s="8">
         <v>5</v>
@@ -38270,7 +38274,7 @@
         <v>2</v>
       </c>
       <c r="G618" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="619" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -38284,7 +38288,7 @@
         <v>1172</v>
       </c>
       <c r="D619" s="15" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E619" s="14">
         <v>2</v>
@@ -38293,7 +38297,7 @@
         <v>3</v>
       </c>
       <c r="G619" s="15" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.2">
@@ -38330,7 +38334,7 @@
         <v>1172</v>
       </c>
       <c r="D621" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E621" s="8">
         <v>5</v>
@@ -38339,7 +38343,7 @@
         <v>1</v>
       </c>
       <c r="G621" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.2">
@@ -38376,7 +38380,7 @@
         <v>1172</v>
       </c>
       <c r="D623" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E623" s="8">
         <v>5</v>
@@ -38385,7 +38389,7 @@
         <v>2</v>
       </c>
       <c r="G623" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="624" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -38399,7 +38403,7 @@
         <v>1172</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E624" s="14">
         <v>2</v>
@@ -38408,7 +38412,7 @@
         <v>3</v>
       </c>
       <c r="G624" s="15" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.2">
@@ -38930,11 +38934,11 @@
       <c r="B647" s="9">
         <v>248</v>
       </c>
-      <c r="C647" s="9" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D647" s="9" t="s">
-        <v>1518</v>
+      <c r="C647" s="53" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D647" s="53" t="s">
+        <v>1787</v>
       </c>
       <c r="E647" s="9">
         <v>2</v>
@@ -38942,8 +38946,8 @@
       <c r="F647" s="9">
         <v>1</v>
       </c>
-      <c r="G647" s="9" t="s">
-        <v>1522</v>
+      <c r="G647" s="53" t="s">
+        <v>1788</v>
       </c>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.2">
@@ -38966,7 +38970,7 @@
         <v>1</v>
       </c>
       <c r="G648" s="10" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.2">
@@ -38989,7 +38993,7 @@
         <v>2</v>
       </c>
       <c r="G649" s="10" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.2">
@@ -39081,7 +39085,7 @@
         <v>1</v>
       </c>
       <c r="G653" s="10" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.2">
@@ -39219,7 +39223,7 @@
         <v>1</v>
       </c>
       <c r="G659" s="10" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.2">
@@ -39265,7 +39269,7 @@
         <v>1</v>
       </c>
       <c r="G661" s="10" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.2">
@@ -39288,7 +39292,7 @@
         <v>1</v>
       </c>
       <c r="G662" s="10" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.2">
@@ -39357,7 +39361,7 @@
         <v>1</v>
       </c>
       <c r="G665" s="9" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.2">
@@ -39380,7 +39384,7 @@
         <v>1</v>
       </c>
       <c r="G666" s="10" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.2">
@@ -39394,7 +39398,7 @@
         <v>1172</v>
       </c>
       <c r="D667" s="10" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E667" s="8">
         <v>2</v>
@@ -39403,7 +39407,7 @@
         <v>1</v>
       </c>
       <c r="G667" s="10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.2">
@@ -39414,7 +39418,7 @@
         <v>258</v>
       </c>
       <c r="C668" s="10" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="D668" s="10">
         <v>1598317200</v>
@@ -39426,7 +39430,7 @@
         <v>1</v>
       </c>
       <c r="G668" s="10" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.2">
@@ -39495,7 +39499,7 @@
         <v>1</v>
       </c>
       <c r="G671" s="10" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.2">
@@ -39529,7 +39533,7 @@
         <v>263</v>
       </c>
       <c r="C673" s="10" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="D673" s="10" t="s">
         <v>924</v>
@@ -39541,7 +39545,7 @@
         <v>1</v>
       </c>
       <c r="G673" s="10" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.2">
@@ -39633,7 +39637,7 @@
         <v>2</v>
       </c>
       <c r="G677" s="10" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="678" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -39690,7 +39694,7 @@
         <v>267</v>
       </c>
       <c r="C680" s="10" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="D680" s="8">
         <v>0</v>
@@ -39702,7 +39706,7 @@
         <v>1</v>
       </c>
       <c r="G680" s="10" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.2">
@@ -39713,7 +39717,7 @@
         <v>268</v>
       </c>
       <c r="C681" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D681" s="8">
         <v>1</v>
@@ -39725,7 +39729,7 @@
         <v>1</v>
       </c>
       <c r="G681" s="10" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.2">
@@ -39736,7 +39740,7 @@
         <v>269</v>
       </c>
       <c r="C682" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D682" s="8">
         <v>2</v>
@@ -39748,7 +39752,7 @@
         <v>1</v>
       </c>
       <c r="G682" s="10" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.2">
@@ -39759,7 +39763,7 @@
         <v>270</v>
       </c>
       <c r="C683" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D683" s="8">
         <v>3</v>
@@ -39771,7 +39775,7 @@
         <v>1</v>
       </c>
       <c r="G683" s="10" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.2">
@@ -39782,7 +39786,7 @@
         <v>271</v>
       </c>
       <c r="C684" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D684" s="8">
         <v>4</v>
@@ -39794,7 +39798,7 @@
         <v>1</v>
       </c>
       <c r="G684" s="10" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.2">
@@ -39805,7 +39809,7 @@
         <v>272</v>
       </c>
       <c r="C685" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D685" s="8">
         <v>5</v>
@@ -39817,7 +39821,7 @@
         <v>1</v>
       </c>
       <c r="G685" s="10" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.2">
@@ -39828,7 +39832,7 @@
         <v>273</v>
       </c>
       <c r="C686" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D686" s="8">
         <v>6</v>
@@ -39840,7 +39844,7 @@
         <v>1</v>
       </c>
       <c r="G686" s="10" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.2">
@@ -39851,7 +39855,7 @@
         <v>274</v>
       </c>
       <c r="C687" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D687" s="8">
         <v>7</v>
@@ -39863,7 +39867,7 @@
         <v>1</v>
       </c>
       <c r="G687" s="10" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.2">
@@ -39874,7 +39878,7 @@
         <v>275</v>
       </c>
       <c r="C688" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D688" s="8">
         <v>8</v>
@@ -39886,7 +39890,7 @@
         <v>1</v>
       </c>
       <c r="G688" s="10" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.2">
@@ -39897,7 +39901,7 @@
         <v>276</v>
       </c>
       <c r="C689" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D689" s="8">
         <v>9</v>
@@ -39909,7 +39913,7 @@
         <v>1</v>
       </c>
       <c r="G689" s="10" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.2">
@@ -39920,7 +39924,7 @@
         <v>277</v>
       </c>
       <c r="C690" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D690" s="8">
         <v>10</v>
@@ -39932,7 +39936,7 @@
         <v>1</v>
       </c>
       <c r="G690" s="10" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.2">
@@ -39943,7 +39947,7 @@
         <v>278</v>
       </c>
       <c r="C691" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D691" s="8">
         <v>11</v>
@@ -39955,7 +39959,7 @@
         <v>1</v>
       </c>
       <c r="G691" s="10" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.2">
@@ -39966,7 +39970,7 @@
         <v>279</v>
       </c>
       <c r="C692" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D692" s="8">
         <v>12</v>
@@ -39978,7 +39982,7 @@
         <v>1</v>
       </c>
       <c r="G692" s="10" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.2">
@@ -40047,7 +40051,7 @@
         <v>1</v>
       </c>
       <c r="G695" s="10" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.2">
@@ -40058,10 +40062,10 @@
         <v>282</v>
       </c>
       <c r="C696" s="10" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="D696" s="10" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E696" s="8">
         <v>2</v>
@@ -40070,7 +40074,7 @@
         <v>1</v>
       </c>
       <c r="G696" s="10" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.2">
@@ -40127,7 +40131,7 @@
         <v>284</v>
       </c>
       <c r="C699" s="10" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="D699" s="8">
         <v>1</v>
@@ -40139,7 +40143,7 @@
         <v>1</v>
       </c>
       <c r="G699" s="10" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.2">
@@ -40150,7 +40154,7 @@
         <v>284</v>
       </c>
       <c r="C700" s="10" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="D700" s="8">
         <v>3</v>
@@ -40173,7 +40177,7 @@
         <v>285</v>
       </c>
       <c r="C701" s="10" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="D701" s="8">
         <v>4</v>
@@ -40196,7 +40200,7 @@
         <v>285</v>
       </c>
       <c r="C702" s="10" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="D702" s="8">
         <v>6</v>
@@ -40208,7 +40212,7 @@
         <v>1</v>
       </c>
       <c r="G702" s="10" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.2">
@@ -40219,7 +40223,7 @@
         <v>286</v>
       </c>
       <c r="C703" s="10" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="D703" s="8">
         <v>7</v>
@@ -40231,7 +40235,7 @@
         <v>1</v>
       </c>
       <c r="G703" s="10" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.2">
@@ -40242,7 +40246,7 @@
         <v>286</v>
       </c>
       <c r="C704" s="53" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="D704" s="9">
         <v>10</v>
@@ -40265,19 +40269,19 @@
         <v>287</v>
       </c>
       <c r="C705" s="10" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D705" s="10" t="s">
         <v>1642</v>
       </c>
-      <c r="D705" s="10" t="s">
+      <c r="E705" s="8">
+        <v>2</v>
+      </c>
+      <c r="F705" s="8">
+        <v>1</v>
+      </c>
+      <c r="G705" s="10" t="s">
         <v>1644</v>
-      </c>
-      <c r="E705" s="8">
-        <v>2</v>
-      </c>
-      <c r="F705" s="8">
-        <v>1</v>
-      </c>
-      <c r="G705" s="10" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="706" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -40291,16 +40295,16 @@
         <v>1173</v>
       </c>
       <c r="D706" s="10" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E706" s="8">
+        <v>2</v>
+      </c>
+      <c r="F706" s="8">
+        <v>2</v>
+      </c>
+      <c r="G706" s="10" t="s">
         <v>1660</v>
-      </c>
-      <c r="E706" s="8">
-        <v>2</v>
-      </c>
-      <c r="F706" s="8">
-        <v>2</v>
-      </c>
-      <c r="G706" s="10" t="s">
-        <v>1662</v>
       </c>
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.2">
@@ -40334,10 +40338,10 @@
         <v>288</v>
       </c>
       <c r="C708" s="10" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D708" s="10" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="E708" s="8">
         <v>5</v>
@@ -40346,7 +40350,7 @@
         <v>1</v>
       </c>
       <c r="G708" s="10" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.2">
@@ -40380,10 +40384,10 @@
         <v>288</v>
       </c>
       <c r="C710" s="10" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D710" s="10" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="E710" s="8">
         <v>5</v>
@@ -40392,7 +40396,7 @@
         <v>2</v>
       </c>
       <c r="G710" s="10" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.2">
@@ -40415,7 +40419,7 @@
         <v>1</v>
       </c>
       <c r="G711" s="10" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.2">
@@ -40449,10 +40453,10 @@
         <v>289</v>
       </c>
       <c r="C713" s="8" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="D713" s="10" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E713" s="8">
         <v>5</v>
@@ -40461,7 +40465,7 @@
         <v>1</v>
       </c>
       <c r="G713" s="10" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.2">
@@ -40472,10 +40476,10 @@
         <v>289</v>
       </c>
       <c r="C714" s="10" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D714" s="10" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="E714" s="8">
         <v>5</v>
@@ -40484,7 +40488,7 @@
         <v>1</v>
       </c>
       <c r="G714" s="10" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.2">
@@ -40495,10 +40499,10 @@
         <v>290</v>
       </c>
       <c r="C715" s="8" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="D715" s="10" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E715" s="8">
         <v>5</v>
@@ -40507,7 +40511,7 @@
         <v>1</v>
       </c>
       <c r="G715" s="10" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.2">
@@ -40530,7 +40534,7 @@
         <v>1</v>
       </c>
       <c r="G716" s="8" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.2">
@@ -40553,7 +40557,7 @@
         <v>1</v>
       </c>
       <c r="G717" s="8" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.2">
@@ -40564,10 +40568,10 @@
         <v>290</v>
       </c>
       <c r="C718" s="10" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D718" s="10" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="E718" s="8">
         <v>5</v>
@@ -40576,7 +40580,7 @@
         <v>1</v>
       </c>
       <c r="G718" s="10" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.2">
@@ -40633,10 +40637,10 @@
         <v>291</v>
       </c>
       <c r="C721" s="8" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="D721" s="10" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E721" s="8">
         <v>5</v>
@@ -40645,7 +40649,7 @@
         <v>1</v>
       </c>
       <c r="G721" s="10" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.2">
@@ -40656,10 +40660,10 @@
         <v>291</v>
       </c>
       <c r="C722" s="10" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D722" s="10" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="E722" s="8">
         <v>5</v>
@@ -40668,7 +40672,7 @@
         <v>1</v>
       </c>
       <c r="G722" s="10" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="723" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -40682,16 +40686,16 @@
         <v>1172</v>
       </c>
       <c r="D723" s="10" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E723" s="8">
+        <v>2</v>
+      </c>
+      <c r="F723" s="8">
+        <v>1</v>
+      </c>
+      <c r="G723" s="10" t="s">
         <v>1660</v>
-      </c>
-      <c r="E723" s="8">
-        <v>2</v>
-      </c>
-      <c r="F723" s="8">
-        <v>1</v>
-      </c>
-      <c r="G723" s="10" t="s">
-        <v>1662</v>
       </c>
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.2">
@@ -40705,7 +40709,7 @@
         <v>1069</v>
       </c>
       <c r="D724" s="10" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E724" s="8">
         <v>5</v>
@@ -40714,7 +40718,7 @@
         <v>1</v>
       </c>
       <c r="G724" s="10" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.2">
@@ -40760,7 +40764,7 @@
         <v>1</v>
       </c>
       <c r="G726" s="10" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.2">
@@ -40771,10 +40775,10 @@
         <v>293</v>
       </c>
       <c r="C727" s="10" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D727" s="10" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="E727" s="8">
         <v>5</v>
@@ -40783,7 +40787,7 @@
         <v>1</v>
       </c>
       <c r="G727" s="10" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.2">
@@ -40797,7 +40801,7 @@
         <v>1069</v>
       </c>
       <c r="D728" s="19" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E728" s="77">
         <v>5</v>
@@ -40806,7 +40810,7 @@
         <v>1</v>
       </c>
       <c r="G728" s="19" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.2">
@@ -40866,7 +40870,7 @@
         <v>1069</v>
       </c>
       <c r="D731" s="19" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E731" s="77">
         <v>5</v>
@@ -40875,7 +40879,7 @@
         <v>1</v>
       </c>
       <c r="G731" s="19" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.2">
@@ -40898,7 +40902,7 @@
         <v>1</v>
       </c>
       <c r="G732" s="19" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.2">
@@ -40921,7 +40925,7 @@
         <v>1</v>
       </c>
       <c r="G733" s="19" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.2">
@@ -40935,7 +40939,7 @@
         <v>1069</v>
       </c>
       <c r="D734" s="19" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E734" s="77">
         <v>5</v>
@@ -40944,7 +40948,7 @@
         <v>1</v>
       </c>
       <c r="G734" s="19" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.2">
@@ -40967,7 +40971,7 @@
         <v>1</v>
       </c>
       <c r="G735" s="19" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.2">
@@ -40990,7 +40994,7 @@
         <v>1</v>
       </c>
       <c r="G736" s="19" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.2">
@@ -41004,7 +41008,7 @@
         <v>1069</v>
       </c>
       <c r="D737" s="19" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E737" s="77">
         <v>5</v>
@@ -41013,7 +41017,7 @@
         <v>1</v>
       </c>
       <c r="G737" s="19" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.2">
@@ -41128,7 +41132,7 @@
         <v>1</v>
       </c>
       <c r="G742" s="10" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.2">
@@ -41174,7 +41178,7 @@
         <v>1</v>
       </c>
       <c r="G744" s="15" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.2">
@@ -41185,7 +41189,7 @@
         <v>301</v>
       </c>
       <c r="C745" s="10" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="D745" s="8">
         <v>4</v>
@@ -41208,7 +41212,7 @@
         <v>301</v>
       </c>
       <c r="C746" s="10" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="D746" s="8">
         <v>6</v>
@@ -41220,7 +41224,7 @@
         <v>1</v>
       </c>
       <c r="G746" s="10" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="747" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -41243,7 +41247,7 @@
         <v>1</v>
       </c>
       <c r="G747" s="15" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="748" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -41266,7 +41270,7 @@
         <v>1</v>
       </c>
       <c r="G748" s="15" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="749" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -41312,7 +41316,7 @@
         <v>1</v>
       </c>
       <c r="G750" s="15" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.2">
@@ -41326,7 +41330,7 @@
         <v>1069</v>
       </c>
       <c r="D751" s="10" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="E751" s="8">
         <v>2</v>
@@ -41392,7 +41396,7 @@
         <v>304</v>
       </c>
       <c r="C754" s="10" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="D754" s="8">
         <v>4</v>
@@ -41415,7 +41419,7 @@
         <v>304</v>
       </c>
       <c r="C755" s="10" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="D755" s="8">
         <v>10</v>
@@ -41450,7 +41454,7 @@
         <v>1</v>
       </c>
       <c r="G756" s="15" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.2">
@@ -41487,7 +41491,7 @@
         <v>1049</v>
       </c>
       <c r="D758" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E758" s="8">
         <v>2</v>
@@ -41496,7 +41500,7 @@
         <v>1</v>
       </c>
       <c r="G758" s="10" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.2">
@@ -41533,7 +41537,7 @@
         <v>1049</v>
       </c>
       <c r="D760" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E760" s="8">
         <v>2</v>
@@ -41542,7 +41546,7 @@
         <v>2</v>
       </c>
       <c r="G760" s="10" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.2">
@@ -41579,7 +41583,7 @@
         <v>1049</v>
       </c>
       <c r="D762" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E762" s="8">
         <v>2</v>
@@ -41588,7 +41592,7 @@
         <v>3</v>
       </c>
       <c r="G762" s="10" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.2">
@@ -41611,7 +41615,7 @@
         <v>1</v>
       </c>
       <c r="G763" s="10" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.2">
@@ -41648,7 +41652,7 @@
         <v>1049</v>
       </c>
       <c r="D765" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E765" s="8">
         <v>2</v>
@@ -41657,7 +41661,7 @@
         <v>1</v>
       </c>
       <c r="G765" s="10" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="766" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -41680,7 +41684,7 @@
         <v>1</v>
       </c>
       <c r="G766" s="15" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.2">
@@ -41691,7 +41695,7 @@
         <v>307</v>
       </c>
       <c r="C767" s="10" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="D767" s="8">
         <v>4</v>
@@ -41714,7 +41718,7 @@
         <v>307</v>
       </c>
       <c r="C768" s="10" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="D768" s="8">
         <v>6</v>
@@ -41726,7 +41730,7 @@
         <v>1</v>
       </c>
       <c r="G768" s="10" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.2">
@@ -41740,7 +41744,7 @@
         <v>1049</v>
       </c>
       <c r="D769" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E769" s="8">
         <v>2</v>
@@ -41749,7 +41753,7 @@
         <v>1</v>
       </c>
       <c r="G769" s="10" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="770" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -41772,7 +41776,7 @@
         <v>1</v>
       </c>
       <c r="G770" s="15" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.2">
@@ -41795,7 +41799,7 @@
         <v>1</v>
       </c>
       <c r="G771" s="10" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.2">
@@ -41841,7 +41845,7 @@
         <v>1</v>
       </c>
       <c r="G773" s="15" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="774" spans="1:7" x14ac:dyDescent="0.2">
@@ -41855,7 +41859,7 @@
         <v>1049</v>
       </c>
       <c r="D774" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E774" s="8">
         <v>2</v>
@@ -41864,7 +41868,7 @@
         <v>1</v>
       </c>
       <c r="G774" s="10" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="775" spans="1:7" x14ac:dyDescent="0.2">
@@ -41878,7 +41882,7 @@
         <v>1049</v>
       </c>
       <c r="D775" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E775" s="8">
         <v>2</v>
@@ -41887,7 +41891,7 @@
         <v>1</v>
       </c>
       <c r="G775" s="10" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.2">
@@ -41901,7 +41905,7 @@
         <v>1049</v>
       </c>
       <c r="D776" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E776" s="8">
         <v>5</v>
@@ -41910,7 +41914,7 @@
         <v>1</v>
       </c>
       <c r="G776" s="10" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.2">
@@ -41924,7 +41928,7 @@
         <v>1069</v>
       </c>
       <c r="D777" s="10" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="E777" s="8">
         <v>2</v>
@@ -41947,7 +41951,7 @@
         <v>1049</v>
       </c>
       <c r="D778" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E778" s="8">
         <v>5</v>
@@ -41956,7 +41960,7 @@
         <v>1</v>
       </c>
       <c r="G778" s="10" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="779" spans="1:7" x14ac:dyDescent="0.2">
@@ -41993,7 +41997,7 @@
         <v>1049</v>
       </c>
       <c r="D780" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E780" s="8">
         <v>5</v>
@@ -42002,7 +42006,7 @@
         <v>2</v>
       </c>
       <c r="G780" s="10" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.2">
@@ -42039,7 +42043,7 @@
         <v>1049</v>
       </c>
       <c r="D782" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E782" s="8">
         <v>5</v>
@@ -42048,7 +42052,7 @@
         <v>3</v>
       </c>
       <c r="G782" s="10" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.2">
@@ -42108,7 +42112,7 @@
         <v>1049</v>
       </c>
       <c r="D785" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E785" s="8">
         <v>5</v>
@@ -42117,7 +42121,7 @@
         <v>1</v>
       </c>
       <c r="G785" s="10" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="786" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -42140,7 +42144,7 @@
         <v>1</v>
       </c>
       <c r="G786" s="15" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.2">
@@ -42186,7 +42190,7 @@
         <v>1</v>
       </c>
       <c r="G788" s="10" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.2">
@@ -42200,7 +42204,7 @@
         <v>1049</v>
       </c>
       <c r="D789" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E789" s="8">
         <v>5</v>
@@ -42209,7 +42213,7 @@
         <v>1</v>
       </c>
       <c r="G789" s="10" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="790" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -42232,7 +42236,7 @@
         <v>1</v>
       </c>
       <c r="G790" s="15" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.2">
@@ -42255,7 +42259,7 @@
         <v>1</v>
       </c>
       <c r="G791" s="10" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="792" spans="1:7" x14ac:dyDescent="0.2">
@@ -42301,7 +42305,7 @@
         <v>1</v>
       </c>
       <c r="G793" s="15" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="794" spans="1:7" x14ac:dyDescent="0.2">
@@ -42315,7 +42319,7 @@
         <v>1049</v>
       </c>
       <c r="D794" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E794" s="8">
         <v>5</v>
@@ -42324,7 +42328,7 @@
         <v>1</v>
       </c>
       <c r="G794" s="10" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="795" spans="1:7" x14ac:dyDescent="0.2">
@@ -42338,7 +42342,7 @@
         <v>1049</v>
       </c>
       <c r="D795" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E795" s="8">
         <v>5</v>
@@ -42347,7 +42351,7 @@
         <v>1</v>
       </c>
       <c r="G795" s="10" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.2">
@@ -42361,7 +42365,7 @@
         <v>1049</v>
       </c>
       <c r="D796" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E796" s="9">
         <v>2</v>
@@ -42370,7 +42374,7 @@
         <v>1</v>
       </c>
       <c r="G796" s="53" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.2">
@@ -42384,7 +42388,7 @@
         <v>1049</v>
       </c>
       <c r="D797" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E797" s="8">
         <v>5</v>
@@ -42393,7 +42397,7 @@
         <v>1</v>
       </c>
       <c r="G797" s="10" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.2">
@@ -42407,7 +42411,7 @@
         <v>1049</v>
       </c>
       <c r="D798" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E798" s="9">
         <v>2</v>
@@ -42416,7 +42420,7 @@
         <v>1</v>
       </c>
       <c r="G798" s="53" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="799" spans="1:7" x14ac:dyDescent="0.2">
@@ -42430,7 +42434,7 @@
         <v>1049</v>
       </c>
       <c r="D799" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E799" s="8">
         <v>5</v>
@@ -42439,7 +42443,7 @@
         <v>1</v>
       </c>
       <c r="G799" s="10" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.2">
@@ -42453,7 +42457,7 @@
         <v>1049</v>
       </c>
       <c r="D800" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E800" s="9">
         <v>2</v>
@@ -42462,7 +42466,7 @@
         <v>1</v>
       </c>
       <c r="G800" s="53" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="801" spans="1:7" x14ac:dyDescent="0.2">
@@ -42476,7 +42480,7 @@
         <v>1049</v>
       </c>
       <c r="D801" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E801" s="9">
         <v>5</v>
@@ -42485,7 +42489,7 @@
         <v>1</v>
       </c>
       <c r="G801" s="9" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="802" spans="1:7" x14ac:dyDescent="0.2">
@@ -42522,7 +42526,7 @@
         <v>1049</v>
       </c>
       <c r="D803" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E803" s="9">
         <v>5</v>
@@ -42531,7 +42535,7 @@
         <v>1</v>
       </c>
       <c r="G803" s="9" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.2">
@@ -42554,7 +42558,7 @@
         <v>1</v>
       </c>
       <c r="G804" s="10" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.2">
@@ -42614,7 +42618,7 @@
         <v>1049</v>
       </c>
       <c r="D807" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E807" s="9">
         <v>5</v>
@@ -42623,7 +42627,7 @@
         <v>1</v>
       </c>
       <c r="G807" s="9" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.2">
@@ -42634,19 +42638,19 @@
         <v>324</v>
       </c>
       <c r="C808" s="10" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D808" s="10" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E808" s="8">
+        <v>2</v>
+      </c>
+      <c r="F808" s="8">
+        <v>1</v>
+      </c>
+      <c r="G808" s="10" t="s">
         <v>1766</v>
-      </c>
-      <c r="D808" s="10" t="s">
-        <v>1767</v>
-      </c>
-      <c r="E808" s="8">
-        <v>2</v>
-      </c>
-      <c r="F808" s="8">
-        <v>1</v>
-      </c>
-      <c r="G808" s="10" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.2">
@@ -42660,7 +42664,7 @@
         <v>1049</v>
       </c>
       <c r="D809" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E809" s="8">
         <v>5</v>
@@ -42669,7 +42673,7 @@
         <v>1</v>
       </c>
       <c r="G809" s="10" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.2">
@@ -42706,7 +42710,7 @@
         <v>1049</v>
       </c>
       <c r="D811" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E811" s="8">
         <v>5</v>
@@ -42715,7 +42719,7 @@
         <v>2</v>
       </c>
       <c r="G811" s="10" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.2">
@@ -42752,7 +42756,7 @@
         <v>1049</v>
       </c>
       <c r="D813" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E813" s="8">
         <v>5</v>
@@ -42761,7 +42765,7 @@
         <v>3</v>
       </c>
       <c r="G813" s="10" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.2">
@@ -42775,7 +42779,7 @@
         <v>1049</v>
       </c>
       <c r="D814" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E814" s="9">
         <v>5</v>
@@ -42784,7 +42788,7 @@
         <v>1</v>
       </c>
       <c r="G814" s="9" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.2">
@@ -42798,7 +42802,7 @@
         <v>1049</v>
       </c>
       <c r="D815" s="10" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="E815" s="9">
         <v>2</v>
@@ -42807,7 +42811,7 @@
         <v>1</v>
       </c>
       <c r="G815" s="9" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.2">
@@ -42821,7 +42825,7 @@
         <v>1049</v>
       </c>
       <c r="D816" s="10" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="E816" s="9">
         <v>5</v>
@@ -42830,7 +42834,7 @@
         <v>1</v>
       </c>
       <c r="G816" s="53" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
     </row>
   </sheetData>
@@ -42887,7 +42891,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>901</v>
@@ -42956,13 +42960,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>901</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -42979,13 +42983,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>901</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -42994,7 +42998,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -43002,13 +43006,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>901</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -43017,7 +43021,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -43025,13 +43029,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>901</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -43040,7 +43044,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -43048,13 +43052,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>901</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -43063,7 +43067,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
     </row>
   </sheetData>
@@ -43161,7 +43165,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B8" t="s">
         <v>1039</v>

--- a/config_10.13/permission_server_config.xlsx
+++ b/config_10.13/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8333" uniqueCount="1789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4205" uniqueCount="1789">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8955,7 +8955,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C385" sqref="C385"/>
+      <selection pane="bottomLeft" activeCell="B376" sqref="B376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23997,10 +23997,10 @@
   <dimension ref="A1:I816"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C627" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C675" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G647" sqref="G647"/>
+      <selection pane="bottomRight" activeCell="E706" sqref="E706"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -40298,7 +40298,7 @@
         <v>1658</v>
       </c>
       <c r="E706" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F706" s="8">
         <v>2</v>
